--- a/Excel Web Scraping/Kolkata_Weather_Forecast.xlsx
+++ b/Excel Web Scraping/Kolkata_Weather_Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scraping\Web-Scraping\Excel Web Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B246F0BA-8FB3-4729-B2F2-6E29D55E8580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DDFB62-8E52-4CE5-A28E-916D034B7369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,10 +227,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -583,27 +582,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E704689C-93B5-4F15-AA39-D73108FA9051}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -654,7 +657,7 @@
       <c r="A2" s="1">
         <v>45574</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2">
@@ -663,13 +666,13 @@
       <c r="D2">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2">
@@ -684,13 +687,13 @@
       <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>0.22916666666666666</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>0.71944444444444444</v>
       </c>
     </row>
@@ -698,7 +701,7 @@
       <c r="A3" s="1">
         <v>45575</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3">
@@ -707,13 +710,13 @@
       <c r="D3">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3">
@@ -728,13 +731,13 @@
       <c r="K3">
         <v>3</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.2298611111111111</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>0.71875</v>
       </c>
     </row>
@@ -742,7 +745,7 @@
       <c r="A4" s="1">
         <v>45576</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4">
@@ -751,13 +754,13 @@
       <c r="D4">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
       <c r="H4">
@@ -772,13 +775,13 @@
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.2298611111111111</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>0.71805555555555556</v>
       </c>
     </row>
@@ -786,7 +789,7 @@
       <c r="A5" s="1">
         <v>45577</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5">
@@ -795,13 +798,13 @@
       <c r="D5">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5">
@@ -816,13 +819,13 @@
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.2298611111111111</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>0.71736111111111112</v>
       </c>
     </row>
@@ -830,7 +833,7 @@
       <c r="A6" s="1">
         <v>45578</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6">
@@ -839,13 +842,13 @@
       <c r="D6">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
       <c r="H6">
@@ -860,13 +863,13 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.23055555555555557</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>0.71666666666666667</v>
       </c>
     </row>
@@ -874,7 +877,7 @@
       <c r="A7" s="1">
         <v>45579</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
@@ -883,13 +886,13 @@
       <c r="D7">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7">
@@ -904,13 +907,13 @@
       <c r="K7">
         <v>7</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0.23055555555555557</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>0.71597222222222223</v>
       </c>
     </row>
@@ -918,7 +921,7 @@
       <c r="A8" s="1">
         <v>45580</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8">
@@ -927,13 +930,13 @@
       <c r="D8">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8">
@@ -948,13 +951,13 @@
       <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>0.23125000000000001</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>0.71597222222222223</v>
       </c>
     </row>
@@ -962,7 +965,7 @@
       <c r="A9" s="1">
         <v>45581</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
@@ -971,13 +974,13 @@
       <c r="D9">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
       <c r="H9">
@@ -992,13 +995,13 @@
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>0.23125000000000001</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>0.71527777777777779</v>
       </c>
     </row>
@@ -1006,7 +1009,7 @@
       <c r="A10" s="1">
         <v>45582</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10">
@@ -1015,13 +1018,13 @@
       <c r="D10">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10">
@@ -1036,13 +1039,13 @@
       <c r="K10">
         <v>3</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>0.23125000000000001</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>0.71458333333333335</v>
       </c>
     </row>
@@ -1050,7 +1053,7 @@
       <c r="A11" s="1">
         <v>45583</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11">
@@ -1059,13 +1062,13 @@
       <c r="D11">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11">
@@ -1080,13 +1083,13 @@
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>0.23194444444444445</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>0.71388888888888891</v>
       </c>
     </row>
@@ -1094,7 +1097,7 @@
       <c r="A12" s="1">
         <v>45584</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12">
@@ -1103,13 +1106,13 @@
       <c r="D12">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>44</v>
       </c>
       <c r="H12">
@@ -1124,13 +1127,13 @@
       <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>0.23194444444444445</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>0.71319444444444446</v>
       </c>
     </row>
@@ -1138,7 +1141,7 @@
       <c r="A13" s="1">
         <v>45585</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13">
@@ -1147,13 +1150,13 @@
       <c r="D13">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>44</v>
       </c>
       <c r="H13">
@@ -1168,13 +1171,13 @@
       <c r="K13">
         <v>3</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>0.2326388888888889</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>0.71319444444444446</v>
       </c>
     </row>
@@ -1182,7 +1185,7 @@
       <c r="A14" s="1">
         <v>45586</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14">
@@ -1191,13 +1194,13 @@
       <c r="D14">
         <v>26</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
       <c r="H14">
@@ -1212,13 +1215,13 @@
       <c r="K14">
         <v>3</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>0.2326388888888889</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>0.71250000000000002</v>
       </c>
     </row>
@@ -1226,7 +1229,7 @@
       <c r="A15" s="1">
         <v>45587</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15">
@@ -1235,13 +1238,13 @@
       <c r="D15">
         <v>26</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>48</v>
       </c>
       <c r="H15">
@@ -1256,13 +1259,13 @@
       <c r="K15">
         <v>5</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>0.23333333333333334</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>0.71180555555555558</v>
       </c>
     </row>
@@ -1270,7 +1273,7 @@
       <c r="A16" s="1">
         <v>45588</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -1279,13 +1282,13 @@
       <c r="D16">
         <v>27</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>50</v>
       </c>
       <c r="H16">
@@ -1300,20 +1303,21 @@
       <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>0.23333333333333334</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>0.71111111111111114</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
